--- a/Phân công/Bảng phân chia công việc.xlsx
+++ b/Phân công/Bảng phân chia công việc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAPTRINH\CongNghePhanMem\McDonalds\Phân công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D14B740-07D0-42B7-8409-60A301DDBC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267114D-ECBF-47E2-AF27-2E5752FDA107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -146,6 +146,33 @@
   </si>
   <si>
     <t>Tuần 10</t>
+  </si>
+  <si>
+    <t>Test chức năng phần mềm, hoàn thành tài liệu Testing</t>
+  </si>
+  <si>
+    <t>Hoàn thành các tài liệu còn thiếu.</t>
+  </si>
+  <si>
+    <t>Code hoàn tất chức năng Đặt hàng, tài liệu Coding</t>
+  </si>
+  <si>
+    <t>Code chức năng giao diện Nhân viên, giao diện Quản lý kho</t>
+  </si>
+  <si>
+    <t>Code hoàn thành chức năng Đăng ký, hiển thị Thực đơn, 
+Quản lý đơn hàng.</t>
+  </si>
+  <si>
+    <t>Quay video demo</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa database, hoàn thành chức năng Đăng nhập 
+(Nhân viên + Khách hàng), Giỏ hàng, Thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Code hoàn thành chức năng Thu Ngân, Nhà Bếp và  Hoàn tất đơn
+ hàng</t>
   </si>
 </sst>
 </file>
@@ -257,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +300,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,13 +601,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="75.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65" style="1" customWidth="1"/>
     <col min="3" max="3" width="58.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.21875" style="1" customWidth="1"/>
@@ -603,7 +636,7 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -617,10 +650,10 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
@@ -632,8 +665,8 @@
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
@@ -645,8 +678,8 @@
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
@@ -744,24 +777,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="35.4" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.8" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45.6" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -770,5 +827,6 @@
     <mergeCell ref="C2:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>